--- a/Example/WH-01.xlsx
+++ b/Example/WH-01.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Programming\BOM program\python-BOM\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA836E7-0E69-4DE7-A468-CBE2AED091AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A76F17-E863-4DD0-8932-221A06B49BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="0" windowWidth="16005" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13605" yWindow="210" windowWidth="15105" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Wheel assembly" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,18 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>PartNo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>QTY</t>
   </si>
   <si>
-    <t>198462-01</t>
+    <t>PN</t>
   </si>
   <si>
-    <t>198461-01</t>
+    <t>SK1006-01</t>
+  </si>
+  <si>
+    <t>SK1001-01</t>
+  </si>
+  <si>
+    <t>SK1007-01</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,10 +382,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +405,12 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
